--- a/input/static_data/cost/season_16/player_cost_GW28.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW28.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C2" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D2" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F2" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G2" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H2" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J2" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K2" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L2" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,37 +179,37 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C3" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D3" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E3" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F3" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G3" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H3" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I3" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J3" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K3" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L3" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="4">
@@ -217,37 +217,37 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="5">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C13" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D13" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E13" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F13" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G13" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H13" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I13" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J13" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K13" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L13" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="14">
@@ -2725,37 +2725,37 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="71">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C76" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D76" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E76" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F76" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G76" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H76" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I76" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J76" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K76" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L76" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="77">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
     </row>
     <row r="92">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="112">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="123">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C126" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D126" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E126" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F126" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G126" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H126" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I126" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J126" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K126" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L126" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="127">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="129">
@@ -4967,37 +4967,37 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="n">
-        <v>5700000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C129" t="n">
-        <v>5700000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D129" t="n">
-        <v>5700000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E129" t="n">
-        <v>5700000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F129" t="n">
-        <v>5700000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G129" t="n">
-        <v>5700000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H129" t="n">
-        <v>5700000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I129" t="n">
-        <v>5700000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J129" t="n">
-        <v>5700000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K129" t="n">
-        <v>5700000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L129" t="n">
-        <v>5700000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="130">
@@ -5005,37 +5005,37 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C130" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D130" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E130" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F130" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G130" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H130" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I130" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J130" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K130" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L130" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="131">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="132">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C132" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D132" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E132" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F132" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G132" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H132" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I132" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J132" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K132" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L132" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C133" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D133" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E133" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F133" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G133" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H133" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I133" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J133" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K133" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L133" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="134">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C153" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D153" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E153" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F153" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G153" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H153" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I153" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J153" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K153" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L153" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="154">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C157" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D157" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E157" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F157" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G157" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H157" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I157" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J157" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K157" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L157" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="158">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C178" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D178" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E178" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F178" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G178" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H178" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I178" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J178" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K178" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L178" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="179">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C181" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D181" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E181" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F181" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G181" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H181" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I181" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J181" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K181" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L181" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="182">
@@ -7133,37 +7133,37 @@
         <v>185.0</v>
       </c>
       <c r="B186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="187">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C187" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D187" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E187" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F187" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G187" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H187" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I187" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J187" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K187" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L187" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="188">
@@ -7627,37 +7627,37 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="200">
@@ -7817,37 +7817,37 @@
         <v>203.0</v>
       </c>
       <c r="B204" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C204" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D204" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E204" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F204" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G204" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H204" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I204" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J204" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K204" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L204" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="205">
@@ -7893,37 +7893,37 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C206" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D206" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E206" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F206" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G206" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H206" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I206" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J206" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K206" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L206" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="207">
@@ -8349,37 +8349,37 @@
         <v>217.0</v>
       </c>
       <c r="B218" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C218" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D218" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E218" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F218" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G218" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H218" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I218" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J218" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K218" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L218" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="219">
@@ -8615,37 +8615,37 @@
         <v>224.0</v>
       </c>
       <c r="B225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="226">
@@ -8691,37 +8691,37 @@
         <v>226.0</v>
       </c>
       <c r="B227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="228">
@@ -8919,37 +8919,37 @@
         <v>232.0</v>
       </c>
       <c r="B233" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C233" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D233" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E233" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F233" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G233" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H233" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I233" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J233" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K233" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L233" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="234">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C238" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D238" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E238" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F238" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G238" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H238" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I238" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J238" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K238" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L238" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C250" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D250" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E250" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F250" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G250" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H250" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I250" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J250" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K250" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L250" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="251">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="261">
@@ -10211,37 +10211,37 @@
         <v>266.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C267" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D267" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E267" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F267" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G267" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H267" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I267" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J267" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K267" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L267" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="268">
@@ -10325,37 +10325,37 @@
         <v>269.0</v>
       </c>
       <c r="B270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="271">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="273">
@@ -10553,37 +10553,37 @@
         <v>275.0</v>
       </c>
       <c r="B276" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C276" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D276" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E276" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F276" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G276" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H276" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I276" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J276" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K276" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L276" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="277">
@@ -10629,37 +10629,37 @@
         <v>277.0</v>
       </c>
       <c r="B278" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C278" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D278" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E278" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F278" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G278" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H278" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I278" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J278" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K278" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L278" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="279">
@@ -11503,37 +11503,37 @@
         <v>300.0</v>
       </c>
       <c r="B301" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C301" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D301" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E301" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F301" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G301" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H301" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I301" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J301" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K301" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L301" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="302">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C309" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D309" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E309" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F309" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G309" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H309" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I309" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J309" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K309" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L309" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="310">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C316" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D316" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E316" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F316" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G316" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H316" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I316" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J316" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K316" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L316" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="317">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="320">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="C331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="D331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="E331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="F331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="G331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="H331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="I331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="J331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="K331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="L331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
     </row>
     <row r="332">
@@ -12833,37 +12833,37 @@
         <v>335.0</v>
       </c>
       <c r="B336" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C336" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D336" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E336" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F336" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G336" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H336" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I336" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J336" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K336" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L336" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="337">
@@ -13175,37 +13175,37 @@
         <v>344.0</v>
       </c>
       <c r="B345" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C345" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D345" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E345" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F345" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G345" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H345" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I345" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J345" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K345" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L345" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="346">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>5900000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C353" t="n">
-        <v>5900000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D353" t="n">
-        <v>5900000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E353" t="n">
-        <v>5900000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F353" t="n">
-        <v>5900000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G353" t="n">
-        <v>5900000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H353" t="n">
-        <v>5900000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I353" t="n">
-        <v>5900000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J353" t="n">
-        <v>5900000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K353" t="n">
-        <v>5900000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L353" t="n">
-        <v>5900000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="354">
@@ -13745,37 +13745,37 @@
         <v>359.0</v>
       </c>
       <c r="B360" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C360" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D360" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E360" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F360" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G360" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H360" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I360" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J360" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K360" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L360" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="361">
@@ -13783,37 +13783,37 @@
         <v>360.0</v>
       </c>
       <c r="B361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="362">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="C364" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="D364" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="E364" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="F364" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="G364" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="H364" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="I364" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="J364" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="K364" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="L364" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C366" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D366" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E366" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F366" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G366" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H366" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I366" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J366" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K366" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L366" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="367">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C395" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D395" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E395" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F395" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G395" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H395" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I395" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J395" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K395" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L395" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C398" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D398" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E398" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F398" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G398" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H398" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I398" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J398" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K398" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L398" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>9400000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="C400" t="n">
-        <v>9400000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="D400" t="n">
-        <v>9400000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="E400" t="n">
-        <v>9400000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="F400" t="n">
-        <v>9400000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="G400" t="n">
-        <v>9400000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="H400" t="n">
-        <v>9400000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="I400" t="n">
-        <v>9400000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="J400" t="n">
-        <v>9400000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="K400" t="n">
-        <v>9400000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="L400" t="n">
-        <v>9400000.0</v>
+        <v>9700000.0</v>
       </c>
     </row>
     <row r="401">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="C415" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="D415" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="E415" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="F415" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="G415" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="H415" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="I415" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="J415" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="K415" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="L415" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
     </row>
     <row r="416">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="C416" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="D416" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="E416" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="F416" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="H416" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="I416" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="J416" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="K416" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="L416" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
     </row>
     <row r="417">
@@ -15911,37 +15911,37 @@
         <v>416.0</v>
       </c>
       <c r="B417" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C417" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D417" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E417" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F417" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G417" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H417" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I417" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J417" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K417" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L417" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="418">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>1.16E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="C429" t="n">
-        <v>1.16E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="D429" t="n">
-        <v>1.16E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.16E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="F429" t="n">
-        <v>1.16E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="G429" t="n">
-        <v>1.16E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="H429" t="n">
-        <v>1.16E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="I429" t="n">
-        <v>1.16E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="J429" t="n">
-        <v>1.16E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="K429" t="n">
-        <v>1.16E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="L429" t="n">
-        <v>1.16E7</v>
+        <v>1.15E7</v>
       </c>
     </row>
     <row r="430">
@@ -17127,37 +17127,37 @@
         <v>448.0</v>
       </c>
       <c r="B449" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C449" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D449" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E449" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F449" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G449" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H449" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I449" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J449" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K449" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L449" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="451">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="454">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C456" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D456" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E456" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F456" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G456" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H456" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I456" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J456" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K456" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L456" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="457">
@@ -17925,37 +17925,37 @@
         <v>469.0</v>
       </c>
       <c r="B470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="471">
@@ -18267,37 +18267,37 @@
         <v>478.0</v>
       </c>
       <c r="B479" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C479" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D479" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E479" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F479" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G479" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H479" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I479" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J479" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K479" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L479" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="480">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>9200000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C482" t="n">
-        <v>9200000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D482" t="n">
-        <v>9200000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E482" t="n">
-        <v>9200000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F482" t="n">
-        <v>9200000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G482" t="n">
-        <v>9200000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H482" t="n">
-        <v>9200000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I482" t="n">
-        <v>9200000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J482" t="n">
-        <v>9200000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K482" t="n">
-        <v>9200000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L482" t="n">
-        <v>9200000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="483">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="C485" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="D485" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="E485" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="F485" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="G485" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="H485" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="I485" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="J485" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="K485" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="L485" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
     </row>
     <row r="486">
@@ -18685,37 +18685,37 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="n">
-        <v>7200000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C490" t="n">
-        <v>7200000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D490" t="n">
-        <v>7200000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E490" t="n">
-        <v>7200000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F490" t="n">
-        <v>7200000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G490" t="n">
-        <v>7200000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H490" t="n">
-        <v>7200000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I490" t="n">
-        <v>7200000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J490" t="n">
-        <v>7200000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K490" t="n">
-        <v>7200000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L490" t="n">
-        <v>7200000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="491">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C510" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D510" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E510" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F510" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G510" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H510" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I510" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J510" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K510" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L510" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="511">
@@ -19483,37 +19483,37 @@
         <v>510.0</v>
       </c>
       <c r="B511" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C511" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D511" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E511" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F511" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G511" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H511" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I511" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J511" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K511" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L511" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="512">
@@ -19597,37 +19597,37 @@
         <v>513.0</v>
       </c>
       <c r="B514" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C514" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D514" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E514" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F514" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G514" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H514" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I514" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J514" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K514" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L514" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="515">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C520" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D520" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E520" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F520" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G520" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H520" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I520" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J520" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K520" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L520" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="521">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="524">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="528">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="533">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C537" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D537" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E537" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F537" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G537" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H537" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I537" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J537" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K537" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L537" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="538">
@@ -20889,37 +20889,37 @@
         <v>547.0</v>
       </c>
       <c r="B548" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C548" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D548" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E548" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F548" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G548" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H548" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I548" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J548" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K548" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L548" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="549">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C550" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D550" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E550" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F550" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G550" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H550" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I550" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J550" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K550" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L550" t="n">
-        <v>6000000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="551">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>1.04E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="C558" t="n">
-        <v>1.04E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="D558" t="n">
-        <v>1.04E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="E558" t="n">
-        <v>1.04E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="F558" t="n">
-        <v>1.04E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="G558" t="n">
-        <v>1.04E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="H558" t="n">
-        <v>1.04E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="I558" t="n">
-        <v>1.04E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="J558" t="n">
-        <v>1.04E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="K558" t="n">
-        <v>1.04E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="L558" t="n">
-        <v>1.04E7</v>
+        <v>1.07E7</v>
       </c>
     </row>
     <row r="559">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>7200000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C562" t="n">
-        <v>7200000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D562" t="n">
-        <v>7200000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E562" t="n">
-        <v>7200000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F562" t="n">
-        <v>7200000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G562" t="n">
-        <v>7200000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H562" t="n">
-        <v>7200000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I562" t="n">
-        <v>7200000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J562" t="n">
-        <v>7200000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K562" t="n">
-        <v>7200000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L562" t="n">
-        <v>7200000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="563">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>1.0E7</v>
+        <v>9700000.0</v>
       </c>
       <c r="C577" t="n">
-        <v>1.0E7</v>
+        <v>9700000.0</v>
       </c>
       <c r="D577" t="n">
-        <v>1.0E7</v>
+        <v>9700000.0</v>
       </c>
       <c r="E577" t="n">
-        <v>1.0E7</v>
+        <v>9700000.0</v>
       </c>
       <c r="F577" t="n">
-        <v>1.0E7</v>
+        <v>9700000.0</v>
       </c>
       <c r="G577" t="n">
-        <v>1.0E7</v>
+        <v>9700000.0</v>
       </c>
       <c r="H577" t="n">
-        <v>1.0E7</v>
+        <v>9700000.0</v>
       </c>
       <c r="I577" t="n">
-        <v>1.0E7</v>
+        <v>9700000.0</v>
       </c>
       <c r="J577" t="n">
-        <v>1.0E7</v>
+        <v>9700000.0</v>
       </c>
       <c r="K577" t="n">
-        <v>1.0E7</v>
+        <v>9700000.0</v>
       </c>
       <c r="L577" t="n">
-        <v>1.0E7</v>
+        <v>9700000.0</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>8600000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="C578" t="n">
-        <v>8600000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="D578" t="n">
-        <v>8600000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="E578" t="n">
-        <v>8600000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="F578" t="n">
-        <v>8600000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="G578" t="n">
-        <v>8600000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="H578" t="n">
-        <v>8600000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="I578" t="n">
-        <v>8600000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="J578" t="n">
-        <v>8600000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="K578" t="n">
-        <v>8600000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="L578" t="n">
-        <v>8600000.0</v>
+        <v>8400000.0</v>
       </c>
     </row>
     <row r="579">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C580" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D580" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E580" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F580" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G580" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H580" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I580" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J580" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K580" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L580" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="581">
@@ -22181,37 +22181,37 @@
         <v>581.0</v>
       </c>
       <c r="B582" t="n">
-        <v>1.28E7</v>
+        <v>1.27E7</v>
       </c>
       <c r="C582" t="n">
-        <v>1.28E7</v>
+        <v>1.27E7</v>
       </c>
       <c r="D582" t="n">
-        <v>1.28E7</v>
+        <v>1.27E7</v>
       </c>
       <c r="E582" t="n">
-        <v>1.28E7</v>
+        <v>1.27E7</v>
       </c>
       <c r="F582" t="n">
-        <v>1.28E7</v>
+        <v>1.27E7</v>
       </c>
       <c r="G582" t="n">
-        <v>1.28E7</v>
+        <v>1.27E7</v>
       </c>
       <c r="H582" t="n">
-        <v>1.28E7</v>
+        <v>1.27E7</v>
       </c>
       <c r="I582" t="n">
-        <v>1.28E7</v>
+        <v>1.27E7</v>
       </c>
       <c r="J582" t="n">
-        <v>1.28E7</v>
+        <v>1.27E7</v>
       </c>
       <c r="K582" t="n">
-        <v>1.28E7</v>
+        <v>1.27E7</v>
       </c>
       <c r="L582" t="n">
-        <v>1.28E7</v>
+        <v>1.27E7</v>
       </c>
     </row>
     <row r="583">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C583" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D583" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E583" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F583" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G583" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H583" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I583" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J583" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K583" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L583" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="584">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="C585" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="D585" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="E585" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="F585" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="G585" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="H585" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="I585" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="J585" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="K585" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="L585" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
     </row>
     <row r="586">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="587">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="594">
@@ -22675,37 +22675,37 @@
         <v>594.0</v>
       </c>
       <c r="B595" t="n">
-        <v>6500000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C595" t="n">
-        <v>6500000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D595" t="n">
-        <v>6500000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E595" t="n">
-        <v>6500000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F595" t="n">
-        <v>6500000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G595" t="n">
-        <v>6500000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H595" t="n">
-        <v>6500000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I595" t="n">
-        <v>6500000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J595" t="n">
-        <v>6500000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K595" t="n">
-        <v>6500000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L595" t="n">
-        <v>6500000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="596">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C599" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D599" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E599" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F599" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G599" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H599" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I599" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J599" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K599" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L599" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="600">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.14E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="C607" t="n">
-        <v>1.14E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="D607" t="n">
-        <v>1.14E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="E607" t="n">
-        <v>1.14E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="F607" t="n">
-        <v>1.14E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="G607" t="n">
-        <v>1.14E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="H607" t="n">
-        <v>1.14E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="I607" t="n">
-        <v>1.14E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="J607" t="n">
-        <v>1.14E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="K607" t="n">
-        <v>1.14E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="L607" t="n">
-        <v>1.14E7</v>
+        <v>1.13E7</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D608" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E608" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F608" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G608" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H608" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I608" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J608" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K608" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L608" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="610">
@@ -23397,37 +23397,37 @@
         <v>613.0</v>
       </c>
       <c r="B614" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C614" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D614" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E614" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F614" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G614" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H614" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I614" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J614" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K614" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L614" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="615">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C617" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D617" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E617" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F617" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G617" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H617" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I617" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J617" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K617" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L617" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="618">
@@ -23815,37 +23815,37 @@
         <v>624.0</v>
       </c>
       <c r="B625" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C625" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D625" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E625" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F625" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G625" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H625" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I625" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J625" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K625" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L625" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="626">
